--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A27775C-7C92-429A-A2AC-F6614090B1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F11AA9-D925-4398-9F8A-07A87D14679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidade" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Empresa Teste</t>
   </si>
@@ -109,19 +109,28 @@
   </si>
   <si>
     <t>impressao</t>
+  </si>
+  <si>
+    <t>CASA AMARELA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF8B39"/>
+      <name val="Fira Code"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,8 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +444,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +455,9 @@
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
     <col min="14" max="14" width="16.28515625" customWidth="1"/>
@@ -448,80 +465,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>123444</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>123123123</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6807000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F11AA9-D925-4398-9F8A-07A87D14679B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E67FAD-8C78-4464-B9E8-2D161437A331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>tipo_inscricao</t>
   </si>
   <si>
-    <t>incricao_estadual</t>
-  </si>
-  <si>
     <t>tipo</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>CASA AMARELA</t>
+  </si>
+  <si>
+    <t>inscricao_estadual</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,38 +477,38 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>3</v>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E67FAD-8C78-4464-B9E8-2D161437A331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1731677B-E87B-4E7F-837C-BB80905DA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8745" yWindow="2835" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidade" sheetId="1" r:id="rId1"/>
-    <sheet name="Depositante" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Empresa Teste</t>
   </si>
@@ -57,15 +56,6 @@
     <t>DEPOSITANTE</t>
   </si>
   <si>
-    <t xml:space="preserve">teste </t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>razao_social</t>
   </si>
   <si>
@@ -112,25 +102,22 @@
   </si>
   <si>
     <t>inscricao_estadual</t>
+  </si>
+  <si>
+    <t>06333395</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF8B39"/>
-      <name val="Fira Code"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,7 +431,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,52 +453,52 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,14 +523,14 @@
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2">
-        <v>6807000</v>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>3</v>
@@ -562,47 +549,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398E41F3-8F6A-4689-A471-A82B793FC7F7}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>21</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1731677B-E87B-4E7F-837C-BB80905DA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747F0A2B-F3D1-4F0C-90BE-A20BCD4867D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="2835" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Entidade" sheetId="1" r:id="rId1"/>
+    <sheet name="entidade" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Empresa Teste</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>06333395</t>
+  </si>
+  <si>
+    <t>armazem</t>
+  </si>
+  <si>
+    <t>integracao_via_servico_rest</t>
+  </si>
+  <si>
+    <t>IFC EMBU</t>
   </si>
 </sst>
 </file>
@@ -428,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,9 +458,11 @@
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
     <col min="14" max="14" width="16.28515625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -497,8 +508,14 @@
       <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,6 +559,12 @@
         <v>3</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747F0A2B-F3D1-4F0C-90BE-A20BCD4867D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C91B28-FC27-46AD-B934-CFC883DEB5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
+    <sheet name="setor" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Empresa Teste</t>
   </si>
@@ -114,6 +115,33 @@
   </si>
   <si>
     <t>IFC EMBU</t>
+  </si>
+  <si>
+    <t>setor_armazenagem</t>
+  </si>
+  <si>
+    <t>codigo_integracao</t>
+  </si>
+  <si>
+    <t>area_setor</t>
+  </si>
+  <si>
+    <t>tipo_setor</t>
+  </si>
+  <si>
+    <t>permite_expedicao_produto</t>
+  </si>
+  <si>
+    <t>permite_mais_produto_pulmao</t>
+  </si>
+  <si>
+    <t>VTEX - FATURAMENTO</t>
+  </si>
+  <si>
+    <t>DISPONIVEL</t>
+  </si>
+  <si>
+    <t>FATURAMENTO</t>
   </si>
 </sst>
 </file>
@@ -437,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,9 +488,15 @@
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" customWidth="1"/>
     <col min="17" max="17" width="26.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="23" width="30" customWidth="1"/>
+    <col min="24" max="24" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -514,8 +548,26 @@
       <c r="Q1" t="s">
         <v>24</v>
       </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,6 +617,24 @@
         <v>25</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -572,4 +642,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C91B28-FC27-46AD-B934-CFC883DEB5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B73D2-D080-4295-9417-D72359E228E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Empresa Teste</t>
   </si>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S15" sqref="R15:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,24 +548,6 @@
       <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -619,24 +601,12 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -646,10 +616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,29 +627,49 @@
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B73D2-D080-4295-9417-D72359E228E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A01CFD4-4A94-4E68-AA95-380518FB044B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="2265" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Empresa Teste</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>FATURAMENTO</t>
+  </si>
+  <si>
+    <t>Contribuinte ICMS</t>
   </si>
 </sst>
 </file>
@@ -467,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S15" sqref="R15:S15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,11 +562,11 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>123444</v>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E2" s="1">
-        <v>123123123</v>
+        <v>1231231231234</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -618,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A01CFD4-4A94-4E68-AA95-380518FB044B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E97A3E-DFE8-4099-80BD-C35A654D1B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="2265" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11565" yWindow="4800" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>AAA</t>
   </si>
   <si>
-    <t>07.046.881/0001-20</t>
-  </si>
-  <si>
     <t>sim</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Contribuinte ICMS</t>
+  </si>
+  <si>
+    <t>07.046.881/1005-20</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,55 +501,55 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
         <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -560,49 +560,49 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1">
-        <v>1231231231234</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -637,42 +637,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E97A3E-DFE8-4099-80BD-C35A654D1B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2B6B9-A74B-410E-9141-E0DAE0E9D220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11565" yWindow="4800" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
-  <si>
-    <t>Empresa Teste</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>sim</t>
   </si>
@@ -144,7 +138,13 @@
     <t>Contribuinte ICMS</t>
   </si>
   <si>
-    <t>07.046.881/1005-20</t>
+    <t>VTEX BRASIL</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>07.046.881/1007-20</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,108 +501,108 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
       <c r="Q1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -619,10 +619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,46 +633,60 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2B6B9-A74B-410E-9141-E0DAE0E9D220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A44917-4140-479A-90E2-B1C52CCE757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,10 +141,10 @@
     <t>VTEX BRASIL</t>
   </si>
   <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>07.046.881/1007-20</t>
+    <t>x11</t>
+  </si>
+  <si>
+    <t>07.046.881/1007-29</t>
   </si>
 </sst>
 </file>
@@ -185,9 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +469,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +564,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="1">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -622,7 +620,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A44917-4140-479A-90E2-B1C52CCE757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE237E63-6FC8-465C-9DCA-85E76F4C189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="2550" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
     <t>x11</t>
   </si>
   <si>
-    <t>07.046.881/1007-29</t>
+    <t>07.046.881/1007-32</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="1">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE237E63-6FC8-465C-9DCA-85E76F4C189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C464091B-3516-4CB9-9090-0A29D4CDCAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="2550" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
-    <sheet name="setor" sheetId="2" r:id="rId2"/>
+    <sheet name="ftp" sheetId="3" r:id="rId2"/>
+    <sheet name="setor" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>sim</t>
   </si>
@@ -141,23 +142,59 @@
     <t>VTEX BRASIL</t>
   </si>
   <si>
-    <t>x11</t>
-  </si>
-  <si>
-    <t>07.046.881/1007-32</t>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>07.046.881/1007-00</t>
+  </si>
+  <si>
+    <t>importacao</t>
+  </si>
+  <si>
+    <t>exportacao</t>
+  </si>
+  <si>
+    <t>backup_importacao</t>
+  </si>
+  <si>
+    <t>backup_exportacao</t>
+  </si>
+  <si>
+    <t>erro</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/importacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_importacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/exportacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_exportacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/erro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,8 +214,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -187,8 +225,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8851A966-585F-46CD-96AD-A8C8A497232E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="E6:F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +603,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="1">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -616,6 +655,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11608A0C-ED28-44C7-82EA-52657FD99FDD}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
   <dimension ref="A1:H2"/>
   <sheetViews>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C464091B-3516-4CB9-9090-0A29D4CDCAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6229A0C2-F92F-4DCD-BB08-539FB84790C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -142,12 +142,6 @@
     <t>VTEX BRASIL</t>
   </si>
   <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>07.046.881/1007-00</t>
-  </si>
-  <si>
     <t>importacao</t>
   </si>
   <si>
@@ -176,6 +170,12 @@
   </si>
   <si>
     <t>/home/ftpsynapcomp/Embu/Vtex/erro</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>07.046.881/1007-01</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,19 +591,19 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11608A0C-ED28-44C7-82EA-52657FD99FDD}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,40 +673,41 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6229A0C2-F92F-4DCD-BB08-539FB84790C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C267C5-0CB2-4C24-A023-2F54364C1F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -157,25 +157,25 @@
     <t>erro</t>
   </si>
   <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/importacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_importacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/exportacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_exportacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/erro</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>07.046.881/1007-01</t>
+    <t>/home/ftpsynapcomp/Embu/Vtex/importacao2</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_importacao2</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/exportacao2</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_exportacao2</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/erro2</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>07.046.881/1007-08</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="1">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -659,7 +659,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C267C5-0CB2-4C24-A023-2F54364C1F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDD959B-525C-4EA7-B7FE-7F6AD82B4448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDD959B-525C-4EA7-B7FE-7F6AD82B4448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5644692F-EFE4-4560-8A26-AC1248296D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
     <sheet name="ftp" sheetId="3" r:id="rId2"/>
     <sheet name="setor" sheetId="2" r:id="rId3"/>
+    <sheet name="tipo_recebimento" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>sim</t>
   </si>
@@ -176,6 +177,15 @@
   </si>
   <si>
     <t>07.046.881/1007-08</t>
+  </si>
+  <si>
+    <t>tipo_recebimento</t>
+  </si>
+  <si>
+    <t>Recebimento de Mercadorias</t>
+  </si>
+  <si>
+    <t>Operações Internas</t>
   </si>
 </sst>
 </file>
@@ -218,12 +228,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,4 +800,49 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C8DA74-DE1A-4BBE-8759-4A15601696AC}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5644692F-EFE4-4560-8A26-AC1248296D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C61BFA3-D834-4F7D-80E6-A8D8686D29D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8415" yWindow="1575" windowWidth="28800" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
     <sheet name="ftp" sheetId="3" r:id="rId2"/>
     <sheet name="setor" sheetId="2" r:id="rId3"/>
     <sheet name="tipo_recebimento" sheetId="4" r:id="rId4"/>
+    <sheet name="regiao_armazenagem" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>sim</t>
   </si>
@@ -186,6 +187,18 @@
   </si>
   <si>
     <t>Operações Internas</t>
+  </si>
+  <si>
+    <t>regiao_armazenagem</t>
+  </si>
+  <si>
+    <t>tipo_armazenagem</t>
+  </si>
+  <si>
+    <t>SUNGLASS - FATURAMENTO</t>
+  </si>
+  <si>
+    <t>PICKING</t>
   </si>
 </sst>
 </file>
@@ -726,10 +739,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,9 +755,11 @@
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -769,8 +784,10 @@
       <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -795,6 +812,8 @@
       <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -806,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C8DA74-DE1A-4BBE-8759-4A15601696AC}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H15:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,4 +864,39 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F253-018E-4447-9CD1-3C2821A0ED52}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C61BFA3-D834-4F7D-80E6-A8D8686D29D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0213FB84-C6CA-40AD-920A-AE29AC541728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="1575" windowWidth="28800" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
     <sheet name="ftp" sheetId="3" r:id="rId2"/>
     <sheet name="setor" sheetId="2" r:id="rId3"/>
-    <sheet name="tipo_recebimento" sheetId="4" r:id="rId4"/>
-    <sheet name="regiao_armazenagem" sheetId="5" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="6" r:id="rId4"/>
+    <sheet name="tipo_recebimento" sheetId="4" r:id="rId5"/>
+    <sheet name="regiao_armazenagem" sheetId="5" r:id="rId6"/>
+    <sheet name="or" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>sim</t>
   </si>
@@ -177,9 +179,6 @@
     <t>x5</t>
   </si>
   <si>
-    <t>07.046.881/1007-08</t>
-  </si>
-  <si>
     <t>tipo_recebimento</t>
   </si>
   <si>
@@ -199,6 +198,30 @@
   </si>
   <si>
     <t>PICKING</t>
+  </si>
+  <si>
+    <t>codigo_tipo_recebimento</t>
+  </si>
+  <si>
+    <t>codigo_doca</t>
+  </si>
+  <si>
+    <t>placa_veiculo</t>
+  </si>
+  <si>
+    <t>RECEBIMENTO DE MERCADORIAS</t>
+  </si>
+  <si>
+    <t>abc-1234</t>
+  </si>
+  <si>
+    <t>quantidade_volume_recebido</t>
+  </si>
+  <si>
+    <t>intervalo_integracao</t>
+  </si>
+  <si>
+    <t>07.046.881/1007-09</t>
   </si>
 </sst>
 </file>
@@ -533,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,13 +646,13 @@
         <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="1">
-        <v>153</v>
+        <v>1536</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -685,7 +708,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +765,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,6 +845,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F48928-9460-4D14-B95C-A2E2C7C50E69}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C8DA74-DE1A-4BBE-8759-4A15601696AC}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -836,17 +871,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -866,12 +901,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F253-018E-4447-9CD1-3C2821A0ED52}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,21 +917,78 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779620F-C964-462C-A02D-55EB64A35923}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0213FB84-C6CA-40AD-920A-AE29AC541728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A532471B-0BAE-45FE-8C6D-46432B807B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
     <sheet name="ftp" sheetId="3" r:id="rId2"/>
     <sheet name="setor" sheetId="2" r:id="rId3"/>
-    <sheet name="Planilha1" sheetId="6" r:id="rId4"/>
-    <sheet name="tipo_recebimento" sheetId="4" r:id="rId5"/>
-    <sheet name="regiao_armazenagem" sheetId="5" r:id="rId6"/>
-    <sheet name="or" sheetId="7" r:id="rId7"/>
+    <sheet name="tipo_recebimento" sheetId="4" r:id="rId4"/>
+    <sheet name="regiao_armazenagem" sheetId="5" r:id="rId5"/>
+    <sheet name="or" sheetId="7" r:id="rId6"/>
+    <sheet name="tipo_pedido" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>sim</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>07.046.881/1007-09</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>VTEX-VENDA</t>
   </si>
 </sst>
 </file>
@@ -556,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -764,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,18 +851,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F48928-9460-4D14-B95C-A2E2C7C50E69}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C8DA74-DE1A-4BBE-8759-4A15601696AC}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -901,7 +895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F253-018E-4447-9CD1-3C2821A0ED52}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -936,7 +930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779620F-C964-462C-A02D-55EB64A35923}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -991,4 +985,40 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A46474-CA4C-4954-897A-C0D2B1EE1C52}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A532471B-0BAE-45FE-8C6D-46432B807B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AD2EE7-90ED-47FD-AE76-94F1321E720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="tipo_recebimento" sheetId="4" r:id="rId4"/>
     <sheet name="regiao_armazenagem" sheetId="5" r:id="rId5"/>
     <sheet name="or" sheetId="7" r:id="rId6"/>
-    <sheet name="tipo_pedido" sheetId="8" r:id="rId7"/>
+    <sheet name="padrao_integracao" sheetId="10" r:id="rId7"/>
+    <sheet name="setor_padrao" sheetId="9" r:id="rId8"/>
+    <sheet name="tipo_pedido" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>sim</t>
   </si>
@@ -228,6 +230,24 @@
   </si>
   <si>
     <t>VTEX-VENDA</t>
+  </si>
+  <si>
+    <t>tipo_palete_completo</t>
+  </si>
+  <si>
+    <t>tipo_palete_incompleto</t>
+  </si>
+  <si>
+    <t>tipo_palete_sobra</t>
+  </si>
+  <si>
+    <t>tipo_palete_unidade</t>
+  </si>
+  <si>
+    <t>quantidade_maxima_picking</t>
+  </si>
+  <si>
+    <t>1 - Pulmão Utilizado</t>
   </si>
 </sst>
 </file>
@@ -770,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -988,11 +1008,82 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FCC70-238A-490B-822A-654A42DAFEAA}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DC345-55C6-4DBA-9273-FD598C8F6056}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A46474-CA4C-4954-897A-C0D2B1EE1C52}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AD2EE7-90ED-47FD-AE76-94F1321E720C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AD2179-A229-4AB4-A934-EE671F3CDE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>sim</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>1 - Pulmão Utilizado</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
 </sst>
 </file>
@@ -954,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779620F-C964-462C-A02D-55EB64A35923}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,8 +991,8 @@
       <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
@@ -1004,6 +1007,9 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1011,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FCC70-238A-490B-822A-654A42DAFEAA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1089,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AD2179-A229-4AB4-A934-EE671F3CDE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDF005-EE22-416F-B640-5B746BBDCA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -163,24 +163,6 @@
     <t>erro</t>
   </si>
   <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/importacao2</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_importacao2</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/exportacao2</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_exportacao2</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/erro2</t>
-  </si>
-  <si>
-    <t>x5</t>
-  </si>
-  <si>
     <t>tipo_recebimento</t>
   </si>
   <si>
@@ -223,9 +205,6 @@
     <t>intervalo_integracao</t>
   </si>
   <si>
-    <t>07.046.881/1007-09</t>
-  </si>
-  <si>
     <t>descricao</t>
   </si>
   <si>
@@ -251,6 +230,27 @@
   </si>
   <si>
     <t>01</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/importacao23</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_importacao23</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/exportacao23</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_exportacao23</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/erro23</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>07.046.881/1007-11</t>
   </si>
 </sst>
 </file>
@@ -585,15 +585,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
@@ -669,19 +669,19 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="1">
-        <v>1536</v>
+        <v>15365</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -737,15 +737,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" customWidth="1"/>
     <col min="5" max="5" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -768,19 +768,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +794,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C8DA74-DE1A-4BBE-8759-4A15601696AC}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,17 +888,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -934,18 +934,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779620F-C964-462C-A02D-55EB64A35923}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,30 +972,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1032,33 +1032,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DC345-55C6-4DBA-9273-FD598C8F6056}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,15 +1103,15 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDF005-EE22-416F-B640-5B746BBDCA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2EB660-2AA3-4512-81FC-87928DA81807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -232,25 +232,25 @@
     <t>01</t>
   </si>
   <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/importacao23</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_importacao23</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/exportacao23</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_exportacao23</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/erro23</t>
-  </si>
-  <si>
     <t>x6</t>
   </si>
   <si>
-    <t>07.046.881/1007-11</t>
+    <t>/home/ftpsynapcomp/Embu/Vtex/importacao232</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/exportacao232</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_exportacao232</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/erro232</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_importacao232</t>
+  </si>
+  <si>
+    <t>07.046.881/1007-14</t>
   </si>
 </sst>
 </file>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,10 +669,10 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -681,7 +681,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="1">
-        <v>15365</v>
+        <v>15368</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -737,7 +737,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,10 +768,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
@@ -877,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C8DA74-DE1A-4BBE-8759-4A15601696AC}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2EB660-2AA3-4512-81FC-87928DA81807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDAE04B-AD03-47DE-BD7C-8BC0BC67CD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
     <sheet name="ftp" sheetId="3" r:id="rId2"/>
     <sheet name="setor" sheetId="2" r:id="rId3"/>
-    <sheet name="tipo_recebimento" sheetId="4" r:id="rId4"/>
-    <sheet name="regiao_armazenagem" sheetId="5" r:id="rId5"/>
-    <sheet name="or" sheetId="7" r:id="rId6"/>
-    <sheet name="padrao_integracao" sheetId="10" r:id="rId7"/>
-    <sheet name="setor_padrao" sheetId="9" r:id="rId8"/>
-    <sheet name="tipo_pedido" sheetId="8" r:id="rId9"/>
+    <sheet name="regiao_armazenagem" sheetId="5" r:id="rId4"/>
+    <sheet name="or" sheetId="7" r:id="rId5"/>
+    <sheet name="padrao_integracao" sheetId="10" r:id="rId6"/>
+    <sheet name="setor_padrao" sheetId="9" r:id="rId7"/>
+    <sheet name="tipo_pedido" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="94">
   <si>
     <t>sim</t>
   </si>
@@ -97,15 +94,9 @@
     <t>impressao</t>
   </si>
   <si>
-    <t>CASA AMARELA</t>
-  </si>
-  <si>
     <t>inscricao_estadual</t>
   </si>
   <si>
-    <t>06333395</t>
-  </si>
-  <si>
     <t>armazem</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>permite_mais_produto_pulmao</t>
   </si>
   <si>
-    <t>VTEX - FATURAMENTO</t>
-  </si>
-  <si>
     <t>DISPONIVEL</t>
   </si>
   <si>
@@ -145,9 +133,6 @@
     <t>Contribuinte ICMS</t>
   </si>
   <si>
-    <t>VTEX BRASIL</t>
-  </si>
-  <si>
     <t>importacao</t>
   </si>
   <si>
@@ -166,21 +151,12 @@
     <t>tipo_recebimento</t>
   </si>
   <si>
-    <t>Recebimento de Mercadorias</t>
-  </si>
-  <si>
-    <t>Operações Internas</t>
-  </si>
-  <si>
     <t>regiao_armazenagem</t>
   </si>
   <si>
     <t>tipo_armazenagem</t>
   </si>
   <si>
-    <t>SUNGLASS - FATURAMENTO</t>
-  </si>
-  <si>
     <t>PICKING</t>
   </si>
   <si>
@@ -208,9 +184,6 @@
     <t>descricao</t>
   </si>
   <si>
-    <t>VTEX-VENDA</t>
-  </si>
-  <si>
     <t>tipo_palete_completo</t>
   </si>
   <si>
@@ -226,38 +199,137 @@
     <t>quantidade_maxima_picking</t>
   </si>
   <si>
-    <t>1 - Pulmão Utilizado</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
-    <t>x6</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/importacao232</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/exportacao232</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_exportacao232</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/erro232</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Vtex/bkp_importacao232</t>
-  </si>
-  <si>
-    <t>07.046.881/1007-14</t>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>12.345.678/0001-01</t>
+  </si>
+  <si>
+    <t>3M DO BRASIL</t>
+  </si>
+  <si>
+    <t>06807000</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/importacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/bkp_importacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/exportacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/erro</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/bkp_exportacao</t>
+  </si>
+  <si>
+    <t>3M - FATURAMENTO</t>
+  </si>
+  <si>
+    <t>3M - RECEBIMENTO</t>
+  </si>
+  <si>
+    <t>3M - PEDIDOS CANCELADOS</t>
+  </si>
+  <si>
+    <t>3M - REVERSA</t>
+  </si>
+  <si>
+    <t>3M - INSUCESSO</t>
+  </si>
+  <si>
+    <t>3M - CHECKIN_VIRTUAL</t>
+  </si>
+  <si>
+    <t>3M - PERDAS / EXTRAVIO</t>
+  </si>
+  <si>
+    <t>3M - AVARIA-LOG</t>
+  </si>
+  <si>
+    <t>3M - AVARIA-REVERSA</t>
+  </si>
+  <si>
+    <t>3M - DESCARTE</t>
+  </si>
+  <si>
+    <t>3M - DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>3M - AVARIA-FABRICA</t>
+  </si>
+  <si>
+    <t>INDISPONIVEL</t>
+  </si>
+  <si>
+    <t>PERDA</t>
+  </si>
+  <si>
+    <t>CANCELADOS</t>
+  </si>
+  <si>
+    <t>REVERSA</t>
+  </si>
+  <si>
+    <t>INSUCESSO</t>
+  </si>
+  <si>
+    <t>FALTA</t>
+  </si>
+  <si>
+    <t>AVARIA</t>
+  </si>
+  <si>
+    <t>DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>Tipo do Local</t>
+  </si>
+  <si>
+    <t>TODOS</t>
+  </si>
+  <si>
+    <t>PULMÃO</t>
+  </si>
+  <si>
+    <t>Perda</t>
+  </si>
+  <si>
+    <t>3M - PERDAS/EXTRAVIO</t>
+  </si>
+  <si>
+    <t>3M - AVARIAS</t>
+  </si>
+  <si>
+    <t>2 - Picking</t>
+  </si>
+  <si>
+    <t>3M-VENDA</t>
+  </si>
+  <si>
+    <t>3M - VENDA</t>
+  </si>
+  <si>
+    <t>Recebimento de Mercadorias;Operações Internas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,13 +343,38 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -293,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,6 +398,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -585,13 +694,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
@@ -628,7 +738,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -661,27 +771,27 @@
         <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1">
-        <v>15368</v>
+        <v>12345670001</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -692,15 +802,13 @@
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
+      <c r="I2" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J2" s="1">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>1445</v>
+      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>0</v>
@@ -737,7 +845,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,36 +859,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -791,81 +899,481 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -874,44 +1382,74 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C8DA74-DE1A-4BBE-8759-4A15601696AC}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F253-018E-4447-9CD1-3C2821A0ED52}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -919,46 +1457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F253-018E-4447-9CD1-3C2821A0ED52}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779620F-C964-462C-A02D-55EB64A35923}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,30 +1475,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1013,54 +1516,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FCC70-238A-490B-822A-654A42DAFEAA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2">
+        <v>90</v>
+      </c>
+      <c r="E2" s="7">
         <v>1000</v>
       </c>
     </row>
@@ -1070,13 +1573,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DC345-55C6-4DBA-9273-FD598C8F6056}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1084,34 +1585,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A46474-CA4C-4954-897A-C0D2B1EE1C52}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDAE04B-AD03-47DE-BD7C-8BC0BC67CD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142ECC8A-4176-4730-9A6E-DF88630765C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
   <si>
     <t>sim</t>
   </si>
@@ -323,6 +323,24 @@
   </si>
   <si>
     <t>Recebimento de Mercadorias;Operações Internas</t>
+  </si>
+  <si>
+    <t>setor</t>
+  </si>
+  <si>
+    <t>doca</t>
+  </si>
+  <si>
+    <t>bancada</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>DCR-SP - DOCAS</t>
+  </si>
+  <si>
+    <t>DCR-SP - BANCADAS</t>
   </si>
 </sst>
 </file>
@@ -694,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,7 +1404,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1479,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1539,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,6 +1549,7 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1575,22 +1594,51 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DC345-55C6-4DBA-9273-FD598C8F6056}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A46474-CA4C-4954-897A-C0D2B1EE1C52}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,20 +1647,26 @@
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142ECC8A-4176-4730-9A6E-DF88630765C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D91B72-B396-484B-A136-6D21AD5FAB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
   <si>
     <t>sim</t>
   </si>
@@ -341,6 +341,18 @@
   </si>
   <si>
     <t>DCR-SP - BANCADAS</t>
+  </si>
+  <si>
+    <t>situacao_lote</t>
+  </si>
+  <si>
+    <t>estado_material</t>
+  </si>
+  <si>
+    <t>Liberado</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
@@ -920,12 +932,12 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -935,7 +947,7 @@
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" style="7" customWidth="1"/>
     <col min="10" max="10" width="25" style="7" customWidth="1"/>
-    <col min="11" max="11" width="32.85546875" customWidth="1"/>
+    <col min="11" max="11" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1404,7 +1416,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DC345-55C6-4DBA-9273-FD598C8F6056}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,19 +1647,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A46474-CA4C-4954-897A-C0D2B1EE1C52}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1657,8 +1673,14 @@
       <c r="C1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -1667,6 +1689,12 @@
       </c>
       <c r="C2" t="s">
         <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D91B72-B396-484B-A136-6D21AD5FAB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D251520A-5343-4376-914B-D2F45FFE3336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -725,7 +725,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DC345-55C6-4DBA-9273-FD598C8F6056}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,6 +1642,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1649,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A46474-CA4C-4954-897A-C0D2B1EE1C52}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D251520A-5343-4376-914B-D2F45FFE3336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03260D5-A872-421C-AAD4-7100051A7852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="111">
   <si>
     <t>sim</t>
   </si>
@@ -353,13 +353,34 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>ativo</t>
+  </si>
+  <si>
+    <t>aceita_qualquer_barra</t>
+  </si>
+  <si>
+    <t>percentual_capacidade</t>
+  </si>
+  <si>
+    <t> picking_dinamico</t>
+  </si>
+  <si>
+    <t>coleta_lote_industria</t>
+  </si>
+  <si>
+    <t>coletar_vencimento_lote</t>
+  </si>
+  <si>
+    <t>não</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +399,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -420,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,6 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1548,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FCC70-238A-490B-822A-654A42DAFEAA}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,9 +1590,14 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1580,8 +1613,26 @@
       <c r="E1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1596,6 +1647,24 @@
       </c>
       <c r="E2" s="7">
         <v>1000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1608,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DC345-55C6-4DBA-9273-FD598C8F6056}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03260D5-A872-421C-AAD4-7100051A7852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A47D74-9FFF-42E6-89BA-73FA43D70B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="728" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -364,9 +364,6 @@
     <t>percentual_capacidade</t>
   </si>
   <si>
-    <t> picking_dinamico</t>
-  </si>
-  <si>
     <t>coleta_lote_industria</t>
   </si>
   <si>
@@ -374,6 +371,9 @@
   </si>
   <si>
     <t>não</t>
+  </si>
+  <si>
+    <t>picking_dinamico</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1617,7 @@
         <v>104</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
         <v>105</v>
@@ -1626,10 +1626,10 @@
         <v>106</v>
       </c>
       <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" t="s">
         <v>108</v>
-      </c>
-      <c r="K1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1661,10 +1661,10 @@
         <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A47D74-9FFF-42E6-89BA-73FA43D70B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936D70E0-618F-426B-A070-2B667D8C251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="728" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -205,30 +205,12 @@
     <t>3M</t>
   </si>
   <si>
-    <t>12.345.678/0001-01</t>
-  </si>
-  <si>
     <t>3M DO BRASIL</t>
   </si>
   <si>
     <t>06807000</t>
   </si>
   <si>
-    <t>/home/ftpsynapcomp/Embu/3M/importacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/bkp_importacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/exportacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/erro</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/bkp_exportacao</t>
-  </si>
-  <si>
     <t>3M - FATURAMENTO</t>
   </si>
   <si>
@@ -374,6 +356,24 @@
   </si>
   <si>
     <t>picking_dinamico</t>
+  </si>
+  <si>
+    <t>12.345.678/0001-02</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/importacao1</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/bkp_importacao1</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/exportacao1</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/bkp_exportacao1</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/erro1</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,16 +840,16 @@
         <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1">
-        <v>12345670001</v>
+        <v>12345670002</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="1">
         <v>1445</v>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11608A0C-ED28-44C7-82EA-52657FD99FDD}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,19 +934,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +960,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,10 +1004,10 @@
         <v>22</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>35</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -1027,10 +1027,10 @@
         <v>28</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>53</v>
@@ -1039,18 +1039,18 @@
         <v>27</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1062,10 +1062,10 @@
         <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>53</v>
@@ -1074,18 +1074,18 @@
         <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1094,13 +1094,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>53</v>
@@ -1109,328 +1109,328 @@
         <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>38</v>
@@ -1471,42 +1471,42 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FCC70-238A-490B-822A-654A42DAFEAA}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,36 +1614,36 @@
         <v>51</v>
       </c>
       <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="H1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E2" s="7">
         <v>1000</v>
@@ -1661,10 +1661,10 @@
         <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1689,21 +1689,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
@@ -1720,7 +1720,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,30 +1741,30 @@
         <v>46</v>
       </c>
       <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
-        <v>100</v>
-      </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936D70E0-618F-426B-A070-2B667D8C251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF42C89-4B39-42C6-AFFA-721CC9A260F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -358,22 +358,22 @@
     <t>picking_dinamico</t>
   </si>
   <si>
-    <t>12.345.678/0001-02</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/importacao1</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/bkp_importacao1</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/exportacao1</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/bkp_exportacao1</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/erro1</t>
+    <t>/home/ftpsynapcomp/Embu/3M/importacao2</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/bkp_importacao2</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/exportacao2</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/bkp_exportacao2</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/erro2</t>
+  </si>
+  <si>
+    <t>12.345.678/0001-05</t>
   </si>
 </sst>
 </file>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,13 +843,13 @@
         <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1">
-        <v>12345670002</v>
+        <v>123456700145</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11608A0C-ED28-44C7-82EA-52657FD99FDD}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,19 +934,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>108</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>109</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF42C89-4B39-42C6-AFFA-721CC9A260F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89850EC-EB14-45F4-92AA-2F19FF672CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -358,22 +358,22 @@
     <t>picking_dinamico</t>
   </si>
   <si>
-    <t>/home/ftpsynapcomp/Embu/3M/importacao2</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/bkp_importacao2</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/exportacao2</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/bkp_exportacao2</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/erro2</t>
-  </si>
-  <si>
-    <t>12.345.678/0001-05</t>
+    <t>12.345.678/0001-06</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/importacao3</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/bkp_importacao3</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/exportacao3</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/bkp_exportacao3</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/3M/erro3</t>
   </si>
 </sst>
 </file>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,13 +843,13 @@
         <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1">
-        <v>123456700145</v>
+        <v>123456700161</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -903,7 +903,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,19 +934,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1678,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89850EC-EB14-45F4-92AA-2F19FF672CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC43F11-3E55-49C4-86EF-628E96D39567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7815" yWindow="3465" windowWidth="28800" windowHeight="11295" tabRatio="728" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -22,26 +22,17 @@
     <sheet name="setor_padrao" sheetId="9" r:id="rId7"/>
     <sheet name="tipo_pedido" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
   <si>
     <t>sim</t>
   </si>
@@ -202,49 +193,10 @@
     <t>01</t>
   </si>
   <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>3M DO BRASIL</t>
-  </si>
-  <si>
     <t>06807000</t>
   </si>
   <si>
-    <t>3M - FATURAMENTO</t>
-  </si>
-  <si>
-    <t>3M - RECEBIMENTO</t>
-  </si>
-  <si>
-    <t>3M - PEDIDOS CANCELADOS</t>
-  </si>
-  <si>
-    <t>3M - REVERSA</t>
-  </si>
-  <si>
-    <t>3M - INSUCESSO</t>
-  </si>
-  <si>
-    <t>3M - CHECKIN_VIRTUAL</t>
-  </si>
-  <si>
-    <t>3M - PERDAS / EXTRAVIO</t>
-  </si>
-  <si>
-    <t>3M - AVARIA-LOG</t>
-  </si>
-  <si>
-    <t>3M - AVARIA-REVERSA</t>
-  </si>
-  <si>
-    <t>3M - DESCARTE</t>
-  </si>
-  <si>
-    <t>3M - DEVOLUCAO</t>
-  </si>
-  <si>
-    <t>3M - AVARIA-FABRICA</t>
+    <t>/home/ftpsynapcomp/Embu/3M/bkp_exportacao</t>
   </si>
   <si>
     <t>INDISPONIVEL</t>
@@ -289,21 +241,9 @@
     <t>Perda</t>
   </si>
   <si>
-    <t>3M - PERDAS/EXTRAVIO</t>
-  </si>
-  <si>
-    <t>3M - AVARIAS</t>
-  </si>
-  <si>
     <t>2 - Picking</t>
   </si>
   <si>
-    <t>3M-VENDA</t>
-  </si>
-  <si>
-    <t>3M - VENDA</t>
-  </si>
-  <si>
     <t>Recebimento de Mercadorias;Operações Internas</t>
   </si>
   <si>
@@ -358,29 +298,86 @@
     <t>picking_dinamico</t>
   </si>
   <si>
-    <t>12.345.678/0001-06</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/importacao3</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/bkp_importacao3</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/exportacao3</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/bkp_exportacao3</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/3M/erro3</t>
+    <t>KARSTEN S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARSTEN </t>
+  </si>
+  <si>
+    <t>82.640.558/0018-44</t>
+  </si>
+  <si>
+    <t>IFC Extrema I</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Karsten/importacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Karsten/bkp_importacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Karsten/exportacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Karsten/erro</t>
+  </si>
+  <si>
+    <t>KARSTEN</t>
+  </si>
+  <si>
+    <t>KARSTEN - FATURAMENTO</t>
+  </si>
+  <si>
+    <t>KARSTEN - RECEBIMENTO</t>
+  </si>
+  <si>
+    <t>KARSTEN - PEDIDOS CANCELADOS</t>
+  </si>
+  <si>
+    <t>KARSTEN - REVERSA</t>
+  </si>
+  <si>
+    <t>KARSTEN - INSUCESSO</t>
+  </si>
+  <si>
+    <t>KARSTEN - CHECKIN_VIRTUAL</t>
+  </si>
+  <si>
+    <t>KARSTEN - PERDAS / EXTRAVIO</t>
+  </si>
+  <si>
+    <t>KARSTEN - AVARIA-LOG</t>
+  </si>
+  <si>
+    <t>KARSTEN - AVARIA-REVERSA</t>
+  </si>
+  <si>
+    <t>KARSTEN - AVARIA-FABRICA</t>
+  </si>
+  <si>
+    <t>KARSTEN - DESCARTE</t>
+  </si>
+  <si>
+    <t>KARSTEN - DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>KARSTEN - PERDAS/EXTRAVIO</t>
+  </si>
+  <si>
+    <t>KARSTEN - AVARIAS</t>
+  </si>
+  <si>
+    <t>KARSTEN-VENDA</t>
+  </si>
+  <si>
+    <t>KARSTEN - VENDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,8 +404,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,12 +431,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -447,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,14 +463,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{8851A966-585F-46CD-96AD-A8C8A497232E}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -753,49 +757,29 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="26.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" customWidth="1"/>
-    <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="23" width="30" customWidth="1"/>
-    <col min="24" max="24" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -807,13 +791,13 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -828,28 +812,28 @@
       <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>105</v>
+      <c r="A2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1">
-        <v>123456700161</v>
+      <c r="E2" s="10">
+        <v>46311690063</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -861,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1">
         <v>1445</v>
@@ -880,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>0</v>
@@ -899,11 +883,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11608A0C-ED28-44C7-82EA-52657FD99FDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,19 +918,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -956,11 +940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,10 +988,10 @@
         <v>22</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>35</v>
@@ -1015,7 +999,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -1027,30 +1011,30 @@
         <v>28</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1062,30 +1046,30 @@
         <v>28</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1094,343 +1078,343 @@
         <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1440,11 +1424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F253-018E-4447-9CD1-3C2821A0ED52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1447,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>38</v>
@@ -1471,42 +1455,42 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1515,11 +1499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779620F-C964-462C-A02D-55EB64A35923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,11 +1559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FCC70-238A-490B-822A-654A42DAFEAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,36 +1598,36 @@
         <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="K1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E2" s="7">
         <v>1000</v>
@@ -1661,10 +1645,10 @@
         <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1674,11 +1658,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DC345-55C6-4DBA-9273-FD598C8F6056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,24 +1673,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1716,11 +1700,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A46474-CA4C-4954-897A-C0D2B1EE1C52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,30 +1725,30 @@
         <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC43F11-3E55-49C4-86EF-628E96D39567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF3CE7A-D2CE-43C5-BC1C-8670785727BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="3465" windowWidth="28800" windowHeight="11295" tabRatio="728" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="2670" windowWidth="28800" windowHeight="11295" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,26 @@
     <sheet name="setor_padrao" sheetId="9" r:id="rId7"/>
     <sheet name="tipo_pedido" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="113">
   <si>
     <t>sim</t>
   </si>
@@ -196,9 +205,6 @@
     <t>06807000</t>
   </si>
   <si>
-    <t>/home/ftpsynapcomp/Embu/3M/bkp_exportacao</t>
-  </si>
-  <si>
     <t>INDISPONIVEL</t>
   </si>
   <si>
@@ -241,9 +247,6 @@
     <t>Perda</t>
   </si>
   <si>
-    <t>2 - Picking</t>
-  </si>
-  <si>
     <t>Recebimento de Mercadorias;Operações Internas</t>
   </si>
   <si>
@@ -298,79 +301,85 @@
     <t>picking_dinamico</t>
   </si>
   <si>
-    <t>KARSTEN S.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KARSTEN </t>
-  </si>
-  <si>
-    <t>82.640.558/0018-44</t>
-  </si>
-  <si>
-    <t>IFC Extrema I</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Karsten/importacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Karsten/bkp_importacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Karsten/exportacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Karsten/erro</t>
-  </si>
-  <si>
-    <t>KARSTEN</t>
-  </si>
-  <si>
-    <t>KARSTEN - FATURAMENTO</t>
-  </si>
-  <si>
-    <t>KARSTEN - RECEBIMENTO</t>
-  </si>
-  <si>
-    <t>KARSTEN - PEDIDOS CANCELADOS</t>
-  </si>
-  <si>
-    <t>KARSTEN - REVERSA</t>
-  </si>
-  <si>
-    <t>KARSTEN - INSUCESSO</t>
-  </si>
-  <si>
-    <t>KARSTEN - CHECKIN_VIRTUAL</t>
-  </si>
-  <si>
-    <t>KARSTEN - PERDAS / EXTRAVIO</t>
-  </si>
-  <si>
-    <t>KARSTEN - AVARIA-LOG</t>
-  </si>
-  <si>
-    <t>KARSTEN - AVARIA-REVERSA</t>
-  </si>
-  <si>
-    <t>KARSTEN - AVARIA-FABRICA</t>
-  </si>
-  <si>
-    <t>KARSTEN - DESCARTE</t>
-  </si>
-  <si>
-    <t>KARSTEN - DEVOLUCAO</t>
-  </si>
-  <si>
-    <t>KARSTEN - PERDAS/EXTRAVIO</t>
-  </si>
-  <si>
-    <t>KARSTEN - AVARIAS</t>
-  </si>
-  <si>
-    <t>KARSTEN-VENDA</t>
-  </si>
-  <si>
-    <t>KARSTEN - VENDA</t>
+    <t>POLAR</t>
+  </si>
+  <si>
+    <t>24.479.880/0002-70</t>
+  </si>
+  <si>
+    <t>298236134110</t>
+  </si>
+  <si>
+    <t>Galpao 7</t>
+  </si>
+  <si>
+    <t>Polar Electro Brasil</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Polar/importacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Polar/bkp_importacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Polar/exportacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Polar/bkp_exportacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomp/Embu/Polar/erro</t>
+  </si>
+  <si>
+    <t>POLAR - FATURAMENTO</t>
+  </si>
+  <si>
+    <t>POLAR - RECEBIMENTO</t>
+  </si>
+  <si>
+    <t>POLAR - PEDIDOS CANCELADOS</t>
+  </si>
+  <si>
+    <t>POLAR - REVERSA</t>
+  </si>
+  <si>
+    <t>POLAR - INSUCESSO</t>
+  </si>
+  <si>
+    <t>POLAR - CHECKIN_VIRTUAL</t>
+  </si>
+  <si>
+    <t>POLAR - PERDAS / EXTRAVIO</t>
+  </si>
+  <si>
+    <t>POLAR - AVARIA-LOG</t>
+  </si>
+  <si>
+    <t>POLAR - AVARIA-REVERSA</t>
+  </si>
+  <si>
+    <t>POLAR - AVARIA-FABRICA</t>
+  </si>
+  <si>
+    <t>POLAR - DESCARTE</t>
+  </si>
+  <si>
+    <t>POLAR - DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>POLAR - PERDAS/EXTRAVIO</t>
+  </si>
+  <si>
+    <t>POLAR - AVARIAS</t>
+  </si>
+  <si>
+    <t>1 - Pulmão Utilizado</t>
+  </si>
+  <si>
+    <t>POLAR-VENDA</t>
+  </si>
+  <si>
+    <t>POLAR - VENDA</t>
   </si>
 </sst>
 </file>
@@ -399,20 +408,22 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +442,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -445,12 +462,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -463,20 +479,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8851A966-585F-46CD-96AD-A8C8A497232E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,29 +784,49 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="23" width="30" customWidth="1"/>
+    <col min="24" max="24" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -791,13 +838,13 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -812,28 +859,28 @@
       <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="10">
-        <v>46311690063</v>
+      <c r="E2" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -844,13 +891,15 @@
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="J2" s="1">
         <v>1445</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>0</v>
@@ -883,53 +932,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11608A0C-ED28-44C7-82EA-52657FD99FDD}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1"/>
-    <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -940,481 +989,481 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="25" style="7" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="25" style="6" customWidth="1"/>
     <col min="11" max="11" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>97</v>
+      <c r="A2" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>88</v>
+      <c r="E2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="J8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="D10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="D12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
+      <c r="G13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1424,73 +1473,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F253-018E-4447-9CD1-3C2821A0ED52}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>67</v>
+      <c r="B3" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>67</v>
+      <c r="A4" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>67</v>
+      <c r="B6" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>67</v>
+      <c r="A7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1499,53 +1548,53 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779620F-C964-462C-A02D-55EB64A35923}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>300</v>
       </c>
     </row>
@@ -1559,96 +1608,89 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FCC70-238A-490B-822A-654A42DAFEAA}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" customWidth="1"/>
+    <col min="1" max="5" width="24.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="21.28515625" style="6" customWidth="1"/>
+    <col min="9" max="11" width="22.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>100</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" t="s">
-        <v>86</v>
+      <c r="K2" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1658,39 +1700,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6DC345-55C6-4DBA-9273-FD598C8F6056}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1700,55 +1742,55 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A46474-CA4C-4954-897A-C0D2B1EE1C52}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16" style="6" customWidth="1"/>
     <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="6" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/infraAuto/silt-template.xlsx
+++ b/infraAuto/silt-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz_\workspace\pessoal\infra-auto\infraAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF3CE7A-D2CE-43C5-BC1C-8670785727BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F38023-8781-477A-AD20-B239B8BAEDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2670" windowWidth="28800" windowHeight="11295" tabRatio="728" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41595" yWindow="930" windowWidth="28800" windowHeight="11295" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entidade" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="111">
   <si>
     <t>sim</t>
   </si>
@@ -103,9 +103,6 @@
     <t>integracao_via_servico_rest</t>
   </si>
   <si>
-    <t>IFC EMBU</t>
-  </si>
-  <si>
     <t>setor_armazenagem</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>01</t>
   </si>
   <si>
-    <t>06807000</t>
-  </si>
-  <si>
     <t>INDISPONIVEL</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>AVARIA</t>
   </si>
   <si>
-    <t>DEVOLUCAO</t>
-  </si>
-  <si>
     <t>SIM</t>
   </si>
   <si>
@@ -262,12 +253,6 @@
     <t>prefix</t>
   </si>
   <si>
-    <t>DCR-SP - DOCAS</t>
-  </si>
-  <si>
-    <t>DCR-SP - BANCADAS</t>
-  </si>
-  <si>
     <t>situacao_lote</t>
   </si>
   <si>
@@ -301,92 +286,101 @@
     <t>picking_dinamico</t>
   </si>
   <si>
-    <t>POLAR</t>
-  </si>
-  <si>
-    <t>24.479.880/0002-70</t>
-  </si>
-  <si>
-    <t>298236134110</t>
-  </si>
-  <si>
-    <t>Galpao 7</t>
-  </si>
-  <si>
-    <t>Polar Electro Brasil</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Polar/importacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Polar/bkp_importacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Polar/exportacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Polar/bkp_exportacao</t>
-  </si>
-  <si>
-    <t>/home/ftpsynapcomp/Embu/Polar/erro</t>
-  </si>
-  <si>
-    <t>POLAR - FATURAMENTO</t>
-  </si>
-  <si>
-    <t>POLAR - RECEBIMENTO</t>
-  </si>
-  <si>
-    <t>POLAR - PEDIDOS CANCELADOS</t>
-  </si>
-  <si>
-    <t>POLAR - REVERSA</t>
-  </si>
-  <si>
-    <t>POLAR - INSUCESSO</t>
-  </si>
-  <si>
-    <t>POLAR - CHECKIN_VIRTUAL</t>
-  </si>
-  <si>
-    <t>POLAR - PERDAS / EXTRAVIO</t>
-  </si>
-  <si>
-    <t>POLAR - AVARIA-LOG</t>
-  </si>
-  <si>
-    <t>POLAR - AVARIA-REVERSA</t>
-  </si>
-  <si>
-    <t>POLAR - AVARIA-FABRICA</t>
-  </si>
-  <si>
-    <t>POLAR - DESCARTE</t>
-  </si>
-  <si>
-    <t>POLAR - DEVOLUCAO</t>
-  </si>
-  <si>
-    <t>POLAR - PERDAS/EXTRAVIO</t>
-  </si>
-  <si>
-    <t>POLAR - AVARIAS</t>
-  </si>
-  <si>
     <t>1 - Pulmão Utilizado</t>
   </si>
   <si>
-    <t>POLAR-VENDA</t>
-  </si>
-  <si>
-    <t>POLAR - VENDA</t>
+    <t xml:space="preserve">KARSTEN </t>
+  </si>
+  <si>
+    <t>82.640.558/0018-44</t>
+  </si>
+  <si>
+    <t>KARSTEN-VENDA</t>
+  </si>
+  <si>
+    <t>KARSTEN - VENDA</t>
+  </si>
+  <si>
+    <t>KARSTEN - FATURAMENTO</t>
+  </si>
+  <si>
+    <t>KARSTEN</t>
+  </si>
+  <si>
+    <t>DOCAS</t>
+  </si>
+  <si>
+    <t>PACKING</t>
+  </si>
+  <si>
+    <t>KARSTEN - RECEBIMENTO</t>
+  </si>
+  <si>
+    <t>KARSTEN - REVERSA</t>
+  </si>
+  <si>
+    <t>KARSTEN - PERDAS/EXTRAVIO</t>
+  </si>
+  <si>
+    <t>KARSTEN - AVARIAS</t>
+  </si>
+  <si>
+    <t>KARSTEN - PEDIDOS CANCELADOS</t>
+  </si>
+  <si>
+    <t>KARSTEN - INSUCESSO</t>
+  </si>
+  <si>
+    <t>KARSTEN - CHECKIN_VIRTUAL</t>
+  </si>
+  <si>
+    <t>KARSTEN - PERDAS / EXTRAVIO</t>
+  </si>
+  <si>
+    <t>KARSTEN - AVARIA-LOG</t>
+  </si>
+  <si>
+    <t>KARSTEN - AVARIA-REVERSA</t>
+  </si>
+  <si>
+    <t>KARSTEN - AVARIA-FABRICA</t>
+  </si>
+  <si>
+    <t>IFC EXTREMA</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomh/Extrema/Karsten/importacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomh/Extrema/Karsten/bkp_importacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomh/Extrema/Karsten/exportacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomh/Extrema/Karsten/bkp_exportacao</t>
+  </si>
+  <si>
+    <t>/home/ftpsynapcomh/Extrema/Karsten/erro</t>
+  </si>
+  <si>
+    <t>IFC EXTREMA I</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>KM 947.5 G40 MOD. A</t>
+  </si>
+  <si>
+    <t>06333395</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +415,13 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -470,7 +471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -481,9 +481,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,7 +494,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -781,106 +782,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="26.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" customWidth="1"/>
-    <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="23" width="30" customWidth="1"/>
-    <col min="24" max="24" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>87</v>
+      <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>88</v>
+        <v>28</v>
+      </c>
+      <c r="E2" s="13">
+        <v>46311690063</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -891,14 +887,14 @@
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1445</v>
+      <c r="I2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>0</v>
@@ -913,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>0</v>
@@ -924,6 +920,9 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -936,50 +935,50 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>95</v>
+      <c r="A2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -990,480 +989,404 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893592CC-2E91-4B52-A146-14375A160B6C}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25" style="5" customWidth="1"/>
     <col min="11" max="11" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="J9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="6" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="J10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="6" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="J11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1477,70 +1400,65 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>66</v>
+      <c r="A3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>66</v>
+      <c r="A4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>66</v>
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>66</v>
+      <c r="A6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="A7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1557,44 +1475,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>300</v>
       </c>
     </row>
@@ -1612,85 +1530,85 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="24.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="21.28515625" style="6" customWidth="1"/>
-    <col min="9" max="11" width="22.28515625" style="6" customWidth="1"/>
+    <col min="1" max="5" width="24.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="21.28515625" style="5" customWidth="1"/>
+    <col min="9" max="11" width="22.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>100</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>100</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>84</v>
+      <c r="K2" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1704,35 +1622,35 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>72</v>
+      <c r="A1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
+      <c r="A2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1746,51 +1664,51 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>76</v>
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>78</v>
+      <c r="A2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
